--- a/data/trans_dic/P20-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P20-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.009861249661998393</v>
+        <v>0.009974269686935218</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01763394270279337</v>
+        <v>0.01876917436229541</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0163844033450756</v>
+        <v>0.01625544243033672</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04013454073529235</v>
+        <v>0.0424164568562941</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05763942355806419</v>
+        <v>0.05784310215408924</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06050692951750852</v>
+        <v>0.05935353777745836</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04239563387338612</v>
+        <v>0.03723832855269885</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02941715973734816</v>
+        <v>0.02958275345950654</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04176145049803808</v>
+        <v>0.04295916507452771</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04151615913385042</v>
+        <v>0.04181163245583871</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01793844847283793</v>
+        <v>0.01922901916492277</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04099470744648982</v>
+        <v>0.03948632982354253</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05124831564496892</v>
+        <v>0.05362688400089107</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05320301025421399</v>
+        <v>0.04798917103997975</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01541368750698093</v>
+        <v>0.01647975832150497</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08885159637942462</v>
+        <v>0.08886478114664401</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1125501376744748</v>
+        <v>0.1139469438933377</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1183667132384003</v>
+        <v>0.1152160800732944</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.121305415590591</v>
+        <v>0.1230277847383158</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05489082470089284</v>
+        <v>0.05597212443257857</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.07360342246743032</v>
+        <v>0.07477642220803304</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.07624782517262371</v>
+        <v>0.07383821272760757</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05782503234994658</v>
+        <v>0.06264238811506762</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.02251321791185103</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.03559035740590861</v>
+        <v>0.03559035740590862</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1187672157467436</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02001378549957769</v>
+        <v>0.02040122511625857</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03058026829520295</v>
+        <v>0.03039712928949992</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01250200576940873</v>
+        <v>0.0111485474888115</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01785551599658062</v>
+        <v>0.01727539275263491</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.09338001423350371</v>
+        <v>0.09327493879559165</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1150137136667584</v>
+        <v>0.1174944218791629</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.08426477981537067</v>
+        <v>0.08329228607874949</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06055986058387203</v>
+        <v>0.06222468561465787</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05920541978426645</v>
+        <v>0.05845562308856747</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.07517953106731912</v>
+        <v>0.07626475786966554</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05272221632229481</v>
+        <v>0.05164576576503117</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04571681558972368</v>
+        <v>0.0462610815649997</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04709538554485953</v>
+        <v>0.04620283533930842</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06293707051568433</v>
+        <v>0.06270698440328121</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04042797090502129</v>
+        <v>0.03939305228301391</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06964884879313805</v>
+        <v>0.06628153210311283</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1462703551326804</v>
+        <v>0.1454033175067489</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1746988684458872</v>
+        <v>0.1752590520009538</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1361225497437588</v>
+        <v>0.1364764735602147</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1142205223569352</v>
+        <v>0.1161386649659689</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08662490208636417</v>
+        <v>0.08739347562080033</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1074955439739066</v>
+        <v>0.1087514592448249</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.08146868532729094</v>
+        <v>0.0796804685375594</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.08141404776221355</v>
+        <v>0.08542234374504641</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01650635500902836</v>
+        <v>0.01632674083243275</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03817061862735048</v>
+        <v>0.03729724775412455</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02247445194378963</v>
+        <v>0.02256557753254211</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02408279632949529</v>
+        <v>0.02292020271949829</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03379875257266016</v>
+        <v>0.03432829192921515</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06218159478572968</v>
+        <v>0.06119112865787296</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05906634484979395</v>
+        <v>0.05697567394183081</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05075801961865684</v>
+        <v>0.04933812737187381</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02892028759602057</v>
+        <v>0.02956000352841537</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.05448493607569804</v>
+        <v>0.05512175098522484</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04381786259929756</v>
+        <v>0.04423614637670639</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04100426140627629</v>
+        <v>0.04097605028677915</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04252853167447206</v>
+        <v>0.04212559441546646</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07561969670113543</v>
+        <v>0.07577819108956826</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05112914559326054</v>
+        <v>0.05325219370444368</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05865254318561663</v>
+        <v>0.0575373318451545</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06773267755538719</v>
+        <v>0.06672775530420284</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1034715747515652</v>
+        <v>0.1017002067191931</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1024792234731564</v>
+        <v>0.09906320581894998</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.08420207354408651</v>
+        <v>0.08550702033166076</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05075988495402661</v>
+        <v>0.04997573104939066</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.08260128440353449</v>
+        <v>0.08331039549681735</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.06933236060733716</v>
+        <v>0.07215731943504147</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.06474884953182099</v>
+        <v>0.06469028822045435</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.04167709075781042</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.05218997037310752</v>
+        <v>0.05218997037310753</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02765354205111372</v>
+        <v>0.0272781597461379</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.037121716865059</v>
+        <v>0.03746424783684794</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02283684387203718</v>
+        <v>0.02201216253443195</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04353207455613056</v>
+        <v>0.04379351648583975</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03437136047259623</v>
+        <v>0.03468548579887738</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06082028530157641</v>
+        <v>0.06169216610465142</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03334753596888122</v>
+        <v>0.03242555716132915</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0324061321553867</v>
+        <v>0.0327756435942964</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03374351345983455</v>
+        <v>0.03451007338948404</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.05323104834068317</v>
+        <v>0.05448302147545231</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03217658012149075</v>
+        <v>0.03133982426000554</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04183214756494981</v>
+        <v>0.04179223732378095</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06470988946619453</v>
+        <v>0.06542543567609509</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07550020487972647</v>
+        <v>0.07565253326713504</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05234083779049975</v>
+        <v>0.05102557374969504</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08351616696670498</v>
+        <v>0.08318443453251141</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07126636252517855</v>
+        <v>0.06996259709189688</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1109593883329867</v>
+        <v>0.1098431346404076</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06950674462744394</v>
+        <v>0.06794047498865836</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05687830917924169</v>
+        <v>0.0572753520171171</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06106437677348118</v>
+        <v>0.06177087794388673</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.08430798386514998</v>
+        <v>0.08496512648930277</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.05421611113894699</v>
+        <v>0.0549969912828084</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06601924831333432</v>
+        <v>0.06500299983119547</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.05080218890605045</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.05461963061102933</v>
+        <v>0.05461963061102935</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.05566391969330821</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03236609163931801</v>
+        <v>0.0316858148330454</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04443301655777857</v>
+        <v>0.04295354282527779</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04857633220854368</v>
+        <v>0.04836345997731233</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06309867151862769</v>
+        <v>0.06342515019617961</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03956673835209095</v>
+        <v>0.04139513083578292</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04788703466431834</v>
+        <v>0.04391783814815602</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03301897956157937</v>
+        <v>0.03262972408752629</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04234200270890056</v>
+        <v>0.04206092177592352</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04209783839882474</v>
+        <v>0.04087969378100368</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.05090706831649356</v>
+        <v>0.05088598391773419</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.04577449008934505</v>
+        <v>0.0457411506925479</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.05639559727873156</v>
+        <v>0.05666160217154436</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0739645856139199</v>
+        <v>0.07799127481406504</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09280653966130152</v>
+        <v>0.09095390057683675</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.09756762325432254</v>
+        <v>0.09850332449766327</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1089650127627735</v>
+        <v>0.1068856401390336</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08970623706379356</v>
+        <v>0.08943649485619956</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.09605856172323606</v>
+        <v>0.09468610837191564</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.07332601077598362</v>
+        <v>0.07252633481413354</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0721552600591141</v>
+        <v>0.07071061005402465</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07344492265723127</v>
+        <v>0.07373301313531332</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.08422431651959297</v>
+        <v>0.08543275617402124</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.07770166679047301</v>
+        <v>0.07866294510394387</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.08239403961270801</v>
+        <v>0.0819386742494337</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.1095941642963993</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.09297745050999656</v>
+        <v>0.09297745050999655</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.08572681059637208</v>
@@ -1377,7 +1377,7 @@
         <v>0.09250212751629022</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.0750122513741758</v>
+        <v>0.07501225137417582</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.05167269618941366</v>
+        <v>0.05092045889372103</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06288229084676321</v>
+        <v>0.06433298739659073</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.07892613561818253</v>
+        <v>0.07752152740215112</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.07310675599082481</v>
+        <v>0.07142749554992753</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.06050367170530989</v>
+        <v>0.05928390109628747</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.0677957268810392</v>
+        <v>0.06851326175566226</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.05242835854223055</v>
+        <v>0.05232358944644736</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.04402640782466866</v>
+        <v>0.04344819677876455</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.06359940200895167</v>
+        <v>0.06436775871699182</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.07482773401282292</v>
+        <v>0.07480814631236896</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.07377645368901264</v>
+        <v>0.07130902496686056</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.06184271268563638</v>
+        <v>0.06094430610042655</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1090874453038893</v>
+        <v>0.1146428082873875</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1336015359950324</v>
+        <v>0.134129086318053</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1493344691050721</v>
+        <v>0.1516916010917018</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1186387640876489</v>
+        <v>0.1219691438513402</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1210593440377124</v>
+        <v>0.1193198261012857</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1267396552470704</v>
+        <v>0.1285525430451497</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.108698510537891</v>
+        <v>0.1108191514162831</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.0767277690824036</v>
+        <v>0.07626996186537703</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1050663519815717</v>
+        <v>0.1042197239158206</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1226066561775988</v>
+        <v>0.1208636406609886</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.116447926078885</v>
+        <v>0.1181286283470074</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.09145491175556908</v>
+        <v>0.09081106790835877</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.1013684804375241</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.09487204568151365</v>
+        <v>0.09487204568151364</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.09638251150286221</v>
@@ -1513,7 +1513,7 @@
         <v>0.09488001241816846</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.09907199928250032</v>
+        <v>0.09907199928250031</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05685603843195557</v>
+        <v>0.05726399337565913</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1014756343074182</v>
+        <v>0.1019118353326087</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.05532742265306445</v>
+        <v>0.05568786286085933</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07934577079492748</v>
+        <v>0.07985863312603422</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.06643498089514151</v>
+        <v>0.06839844568693966</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.08443874610443337</v>
+        <v>0.08540446442993313</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.06859399073535258</v>
+        <v>0.06768582348590527</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.07661251864966068</v>
+        <v>0.07561512426407668</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.07223071724974231</v>
+        <v>0.07279614363324623</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1007390384438007</v>
+        <v>0.09744576746820212</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.07158250249353371</v>
+        <v>0.07208201773472105</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.08391320606597751</v>
+        <v>0.08446299770685242</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1403499856709841</v>
+        <v>0.1397000598371636</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2012561987747622</v>
+        <v>0.2033430512387177</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1239962373334949</v>
+        <v>0.1203837221293978</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1366291490637806</v>
+        <v>0.140787655720363</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1346532068786996</v>
+        <v>0.1392304053698931</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1504357858574557</v>
+        <v>0.154869884787782</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1408021521663121</v>
+        <v>0.1387630319883267</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1170516476776715</v>
+        <v>0.1152416943813929</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1242376327875445</v>
+        <v>0.1257106914939816</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1533151772014354</v>
+        <v>0.1570288139883992</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1233332978424767</v>
+        <v>0.1195830669620512</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.119121378729381</v>
+        <v>0.1160615762907284</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.03481822323734288</v>
+        <v>0.03517505133738276</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.05357530969927975</v>
+        <v>0.0529560943412473</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.04057136070786677</v>
+        <v>0.0413306795886315</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.05007353394387337</v>
+        <v>0.05022066642849589</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.06540273755975194</v>
+        <v>0.06534352694564585</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.08632097760346072</v>
+        <v>0.08482629104669537</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.06813196674766327</v>
+        <v>0.0683766491139508</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.05878792459887847</v>
+        <v>0.05847830381162596</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.05263701843802458</v>
+        <v>0.05262628201072669</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.0723242506507467</v>
+        <v>0.07207535037721033</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.05700147599301867</v>
+        <v>0.0569885590382995</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.05634193505176748</v>
+        <v>0.05696182072329446</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.04899940523340228</v>
+        <v>0.0488679303111352</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.0701497590130598</v>
+        <v>0.069713731599287</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0555857968233314</v>
+        <v>0.05638573633172054</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.06575732561375243</v>
+        <v>0.06687726761559298</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.08350308527758768</v>
+        <v>0.08315847145516574</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1067100339602286</v>
+        <v>0.1046664699082766</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.08681047390311687</v>
+        <v>0.08702733628467199</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.07427086192791184</v>
+        <v>0.07356900661473674</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.06408227228174285</v>
+        <v>0.06450618366786663</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.08504521843741056</v>
+        <v>0.08514976010835695</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.06905282531260525</v>
+        <v>0.0694520166173045</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.06753522921335316</v>
+        <v>0.06789716671545261</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4863</v>
+        <v>4919</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7972</v>
+        <v>8486</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6873</v>
+        <v>6819</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>18762</v>
+        <v>19829</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>24798</v>
+        <v>24886</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>23946</v>
+        <v>23489</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>15369</v>
+        <v>13499</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>28258</v>
+        <v>28417</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>36847</v>
+        <v>37904</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>33845</v>
+        <v>34086</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>13818</v>
+        <v>14812</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>20215</v>
+        <v>19471</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>23169</v>
+        <v>24245</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>22317</v>
+        <v>20130</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>6286</v>
+        <v>6720</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>41537</v>
+        <v>41543</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>48422</v>
+        <v>49023</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>46844</v>
+        <v>45597</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>43975</v>
+        <v>44599</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>52729</v>
+        <v>53767</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>64942</v>
+        <v>65977</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>62159</v>
+        <v>60194</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>44543</v>
+        <v>48254</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>14720</v>
+        <v>15005</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>21011</v>
+        <v>20885</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7382</v>
+        <v>6583</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>8515</v>
+        <v>8238</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>58409</v>
+        <v>58343</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>70188</v>
+        <v>71702</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>47487</v>
+        <v>46939</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>30346</v>
+        <v>31180</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>80578</v>
+        <v>79557</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>97534</v>
+        <v>98941</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>60844</v>
+        <v>59601</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>44710</v>
+        <v>45242</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>34638</v>
+        <v>33982</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>43243</v>
+        <v>43085</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>23873</v>
+        <v>23261</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>33215</v>
+        <v>31609</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>91491</v>
+        <v>90949</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>106611</v>
+        <v>106953</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>76711</v>
+        <v>76910</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>57234</v>
+        <v>58195</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>117895</v>
+        <v>118941</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>139458</v>
+        <v>141088</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>94018</v>
+        <v>91954</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>79621</v>
+        <v>83541</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>10542</v>
+        <v>10427</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>26027</v>
+        <v>25432</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>15038</v>
+        <v>15099</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>14951</v>
+        <v>14230</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>23312</v>
+        <v>23678</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>44202</v>
+        <v>43498</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>39066</v>
+        <v>37683</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>31579</v>
+        <v>30695</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>38418</v>
+        <v>39268</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>75882</v>
+        <v>76769</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>58299</v>
+        <v>58855</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>50967</v>
+        <v>50932</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>27162</v>
+        <v>26904</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>51562</v>
+        <v>51670</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>34210</v>
+        <v>35631</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>36414</v>
+        <v>35721</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>46718</v>
+        <v>46025</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>73553</v>
+        <v>72294</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>67778</v>
+        <v>65519</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>52385</v>
+        <v>53197</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>67430</v>
+        <v>66388</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>115040</v>
+        <v>116027</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>92246</v>
+        <v>96004</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>80481</v>
+        <v>80408</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>14356</v>
+        <v>14161</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>22816</v>
+        <v>23026</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>14754</v>
+        <v>14221</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>30499</v>
+        <v>30682</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>17723</v>
+        <v>17885</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>37477</v>
+        <v>38015</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>21645</v>
+        <v>21047</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>23880</v>
+        <v>24152</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>34917</v>
+        <v>35711</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>65518</v>
+        <v>67059</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>41673</v>
+        <v>40589</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>60134</v>
+        <v>60077</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>33594</v>
+        <v>33965</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>46404</v>
+        <v>46497</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>33815</v>
+        <v>32965</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>58513</v>
+        <v>58280</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>36748</v>
+        <v>36076</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>68373</v>
+        <v>67685</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>45115</v>
+        <v>44099</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>41913</v>
+        <v>42205</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>63189</v>
+        <v>63920</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>103768</v>
+        <v>104576</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>70217</v>
+        <v>71228</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>94903</v>
+        <v>93442</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>12516</v>
+        <v>12253</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>19081</v>
+        <v>18445</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>23216</v>
+        <v>23114</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>38449</v>
+        <v>38648</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>15984</v>
+        <v>16723</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>21444</v>
+        <v>19666</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>16405</v>
+        <v>16212</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>25750</v>
+        <v>25579</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>33287</v>
+        <v>32323</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>44657</v>
+        <v>44639</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>44619</v>
+        <v>44587</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>68660</v>
+        <v>68984</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>28603</v>
+        <v>30160</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>39854</v>
+        <v>39058</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>46629</v>
+        <v>47077</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>66397</v>
+        <v>65130</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>36240</v>
+        <v>36131</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>43015</v>
+        <v>42400</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>36432</v>
+        <v>36035</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>43880</v>
+        <v>43001</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>58073</v>
+        <v>58300</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>73884</v>
+        <v>74944</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>75741</v>
+        <v>76678</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>100313</v>
+        <v>99759</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>15119</v>
+        <v>14898</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>19480</v>
+        <v>19929</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>26387</v>
+        <v>25918</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>29760</v>
+        <v>29077</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>20749</v>
+        <v>20330</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>23999</v>
+        <v>24253</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>19805</v>
+        <v>19766</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>19335</v>
+        <v>19081</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>40419</v>
+        <v>40907</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>49669</v>
+        <v>49656</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>52536</v>
+        <v>50779</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>52334</v>
+        <v>51574</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>31917</v>
+        <v>33543</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>41388</v>
+        <v>41551</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>49927</v>
+        <v>50715</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>48295</v>
+        <v>49651</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>41515</v>
+        <v>40919</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>44865</v>
+        <v>45507</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>41062</v>
+        <v>41863</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>33696</v>
+        <v>33495</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>66771</v>
+        <v>66233</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>81384</v>
+        <v>80227</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>82922</v>
+        <v>84118</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>77393</v>
+        <v>76849</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>11933</v>
+        <v>12019</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>25354</v>
+        <v>25463</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>14219</v>
+        <v>14312</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>24613</v>
+        <v>24772</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>22183</v>
+        <v>22839</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>32845</v>
+        <v>33221</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>27449</v>
+        <v>27086</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>35595</v>
+        <v>35131</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>39278</v>
+        <v>39586</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>64355</v>
+        <v>62251</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>47042</v>
+        <v>47370</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>65017</v>
+        <v>65443</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>29457</v>
+        <v>29321</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>50284</v>
+        <v>50805</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>31867</v>
+        <v>30938</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>42382</v>
+        <v>43672</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>44962</v>
+        <v>46490</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>58516</v>
+        <v>60241</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>56345</v>
+        <v>55529</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>54383</v>
+        <v>53542</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>67559</v>
+        <v>68360</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>97942</v>
+        <v>100315</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>81051</v>
+        <v>78586</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>92296</v>
+        <v>89925</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>114051</v>
+        <v>115219</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>183481</v>
+        <v>181360</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>137713</v>
+        <v>140291</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>176898</v>
+        <v>177418</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>221009</v>
+        <v>220809</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>307157</v>
+        <v>301838</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>241497</v>
+        <v>242364</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>219545</v>
+        <v>218389</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>350289</v>
+        <v>350217</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>505043</v>
+        <v>503305</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>395527</v>
+        <v>395437</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>409453</v>
+        <v>413958</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>160502</v>
+        <v>160072</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>240244</v>
+        <v>238751</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>188678</v>
+        <v>191393</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>232305</v>
+        <v>236261</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>282173</v>
+        <v>281009</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>379707</v>
+        <v>372436</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>307703</v>
+        <v>308472</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>277367</v>
+        <v>274746</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>426454</v>
+        <v>429275</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>593874</v>
+        <v>594604</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>479150</v>
+        <v>481920</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>490798</v>
+        <v>493428</v>
       </c>
     </row>
     <row r="36">
